--- a/Sharpe das Estratégias/s1F.xlsx
+++ b/Sharpe das Estratégias/s1F.xlsx
@@ -1,21 +1,236 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takes\Documents\Insper\Data\Projeto Fin\GitHub\Data_Fin_2021.1\Sharpe das Estratégias\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519D9BE-7E3E-42EF-87D6-1EEB8A672DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>PETR4 BS Equity</t>
+  </si>
+  <si>
+    <t>VALE3 BS Equity</t>
+  </si>
+  <si>
+    <t>BBDC4 BS Equity</t>
+  </si>
+  <si>
+    <t>ITUB4 BS Equity</t>
+  </si>
+  <si>
+    <t>MGLU3 BS Equity</t>
+  </si>
+  <si>
+    <t>B3SA3 BS Equity</t>
+  </si>
+  <si>
+    <t>VVAR3 BS Equity</t>
+  </si>
+  <si>
+    <t>JBSS3 BS Equity</t>
+  </si>
+  <si>
+    <t>ABEV3 BS Equity</t>
+  </si>
+  <si>
+    <t>^BVSP</t>
+  </si>
+  <si>
+    <t>abev3</t>
+  </si>
+  <si>
+    <t>ações</t>
+  </si>
+  <si>
+    <t>alimentos</t>
+  </si>
+  <si>
+    <t>ambev</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>bacen</t>
+  </si>
+  <si>
+    <t>banco</t>
+  </si>
+  <si>
+    <t>bbdc4</t>
+  </si>
+  <si>
+    <t>bitcoin</t>
+  </si>
+  <si>
+    <t>bolsa</t>
+  </si>
+  <si>
+    <t>bradesco</t>
+  </si>
+  <si>
+    <t>bvsp</t>
+  </si>
+  <si>
+    <t>cerveja</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>cor</t>
+  </si>
+  <si>
+    <t>corretora</t>
+  </si>
+  <si>
+    <t>credito</t>
+  </si>
+  <si>
+    <t>crise</t>
+  </si>
+  <si>
+    <t>derivativos</t>
+  </si>
+  <si>
+    <t>desemprego</t>
+  </si>
+  <si>
+    <t>dinheiro</t>
+  </si>
+  <si>
+    <t>divida</t>
+  </si>
+  <si>
+    <t>dividendos</t>
+  </si>
+  <si>
+    <t>dolar</t>
+  </si>
+  <si>
+    <t>economia</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>estagio</t>
+  </si>
+  <si>
+    <t>ferro</t>
+  </si>
+  <si>
+    <t>financas</t>
+  </si>
+  <si>
+    <t>fundos</t>
+  </si>
+  <si>
+    <t>gado</t>
+  </si>
+  <si>
+    <t>gasolina</t>
+  </si>
+  <si>
+    <t>ibovespa</t>
+  </si>
+  <si>
+    <t>inflacao</t>
+  </si>
+  <si>
+    <t>investimento</t>
+  </si>
+  <si>
+    <t>investir</t>
+  </si>
+  <si>
+    <t>itau</t>
+  </si>
+  <si>
+    <t>itub4</t>
+  </si>
+  <si>
+    <t>jbs</t>
+  </si>
+  <si>
+    <t>jbss3</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>mercado</t>
+  </si>
+  <si>
+    <t>mglu3</t>
+  </si>
+  <si>
+    <t>mineraca</t>
+  </si>
+  <si>
+    <t>petr4</t>
+  </si>
+  <si>
+    <t>petrobras</t>
+  </si>
+  <si>
+    <t>petroleo</t>
+  </si>
+  <si>
+    <t>politica</t>
+  </si>
+  <si>
+    <t>portifolio</t>
+  </si>
+  <si>
+    <t>renda</t>
+  </si>
+  <si>
+    <t>restaurante</t>
+  </si>
+  <si>
+    <t>selic</t>
+  </si>
+  <si>
+    <t>titulos</t>
+  </si>
+  <si>
+    <t>vale</t>
+  </si>
+  <si>
+    <t>vale3</t>
+  </si>
+  <si>
+    <t>viajar</t>
+  </si>
+  <si>
+    <t>vvar3</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -24,12 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -49,17 +262,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -67,10 +293,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -78,6 +307,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -124,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,9 +393,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,6 +445,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,273 +638,275 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:BG1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:59">
-      <c r="B1" s="1">
+    <row r="1" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
       <c r="B2">
-        <v>0.5081069595443085</v>
+        <v>0.50810695954430851</v>
       </c>
       <c r="C2">
         <v>-0.1569977810432841</v>
       </c>
       <c r="D2">
-        <v>0.244130539923702</v>
+        <v>0.24413053992370201</v>
       </c>
       <c r="E2">
-        <v>-0.7361081519952081</v>
+        <v>-0.73610815199520807</v>
       </c>
       <c r="F2">
-        <v>-0.09927653328394757</v>
+        <v>-9.9276533283947574E-2</v>
       </c>
       <c r="G2">
-        <v>-0.03588918169123085</v>
+        <v>-3.588918169123085E-2</v>
       </c>
       <c r="H2">
-        <v>0.7296787150030096</v>
+        <v>0.72967871500300963</v>
       </c>
       <c r="I2">
-        <v>0.2769085895761429</v>
+        <v>0.27690858957614289</v>
       </c>
       <c r="J2">
         <v>0.2496130695816528</v>
       </c>
       <c r="K2">
-        <v>-0.5413129568466601</v>
+        <v>-0.54131295684666014</v>
       </c>
       <c r="L2">
-        <v>0.5958394118242865</v>
+        <v>0.59583941182428646</v>
       </c>
       <c r="M2">
-        <v>-0.1311197666466311</v>
+        <v>-0.13111976664663111</v>
       </c>
       <c r="N2">
-        <v>0.7073955124974763</v>
+        <v>0.70739551249747634</v>
       </c>
       <c r="O2">
-        <v>-0.1581065293523228</v>
+        <v>-0.15810652935232281</v>
       </c>
       <c r="P2">
-        <v>0.8358168101513569</v>
+        <v>0.83581681015135689</v>
       </c>
       <c r="Q2">
-        <v>0.2761006453017368</v>
+        <v>0.27610064530173678</v>
       </c>
       <c r="R2">
-        <v>-0.309229915652544</v>
+        <v>-0.30922991565254399</v>
       </c>
       <c r="S2">
-        <v>0.3179948611750794</v>
+        <v>0.31799486117507941</v>
       </c>
       <c r="T2">
-        <v>0.3281519559788493</v>
+        <v>0.32815195597884927</v>
       </c>
       <c r="U2">
-        <v>0.2766709097423306</v>
+        <v>0.27667090974233061</v>
       </c>
       <c r="V2">
-        <v>0.03306882695632856</v>
+        <v>3.3068826956328561E-2</v>
       </c>
       <c r="W2">
-        <v>-0.2807339524129865</v>
+        <v>-0.28073395241298649</v>
       </c>
       <c r="X2">
-        <v>0.5333584252986401</v>
+        <v>0.53335842529864008</v>
       </c>
       <c r="Y2">
-        <v>0.03934172557514118</v>
+        <v>3.9341725575141179E-2</v>
       </c>
       <c r="Z2">
-        <v>0.4070178222603534</v>
+        <v>0.40701782226035338</v>
       </c>
       <c r="AA2">
-        <v>-0.384207729171968</v>
+        <v>-0.38420772917196799</v>
       </c>
       <c r="AB2">
-        <v>0.0610598510688934</v>
+        <v>6.1059851068893403E-2</v>
       </c>
       <c r="AC2">
         <v>0.6981661148451328</v>
@@ -640,231 +915,231 @@
         <v>0.126115850559469</v>
       </c>
       <c r="AE2">
-        <v>0.5604149212619677</v>
+        <v>0.56041492126196768</v>
       </c>
       <c r="AF2">
-        <v>0.8622500238198189</v>
+        <v>0.86225002381981886</v>
       </c>
       <c r="AG2">
-        <v>-0.2212050985342759</v>
+        <v>-0.22120509853427589</v>
       </c>
       <c r="AH2">
-        <v>0.3302829530440828</v>
+        <v>0.33028295304408278</v>
       </c>
       <c r="AI2">
-        <v>-0.5046431466361482</v>
+        <v>-0.50464314663614818</v>
       </c>
       <c r="AJ2">
-        <v>0.09455782686271917</v>
+        <v>9.4557826862719171E-2</v>
       </c>
       <c r="AK2">
         <v>0.2256551138757262</v>
       </c>
       <c r="AL2">
-        <v>0.3948513571930067</v>
+        <v>0.39485135719300668</v>
       </c>
       <c r="AM2">
-        <v>-0.5489505850047616</v>
+        <v>-0.54895058500476157</v>
       </c>
       <c r="AN2">
-        <v>-0.4948401769086028</v>
+        <v>-0.49484017690860282</v>
       </c>
       <c r="AO2">
-        <v>-0.7847216687564015</v>
+        <v>-0.78472166875640148</v>
       </c>
       <c r="AP2">
-        <v>0.0542048986224019</v>
+        <v>5.4204898622401902E-2</v>
       </c>
       <c r="AQ2">
         <v>1.006241867679051</v>
       </c>
       <c r="AR2">
-        <v>0.3019103159550324</v>
+        <v>0.30191031595503243</v>
       </c>
       <c r="AS2">
-        <v>-0.6060444687011257</v>
+        <v>-0.60604446870112572</v>
       </c>
       <c r="AT2">
-        <v>0.04601660937672603</v>
+        <v>4.6016609376726032E-2</v>
       </c>
       <c r="AU2">
-        <v>-0.05422214555879563</v>
+        <v>-5.4222145558795627E-2</v>
       </c>
       <c r="AV2">
         <v>0.119865298160984</v>
       </c>
       <c r="AW2">
-        <v>0.4439215934883868</v>
+        <v>0.44392159348838678</v>
       </c>
       <c r="AX2">
-        <v>0.1541966712302986</v>
+        <v>0.15419667123029859</v>
       </c>
       <c r="AY2">
-        <v>-0.2163026333789642</v>
+        <v>-0.21630263337896419</v>
       </c>
       <c r="AZ2">
-        <v>0.02200638593662685</v>
+        <v>2.2006385936626849E-2</v>
       </c>
       <c r="BA2">
-        <v>-0.3281553486208338</v>
+        <v>-0.32815534862083379</v>
       </c>
       <c r="BB2">
-        <v>-0.07131047934660999</v>
+        <v>-7.1310479346609987E-2</v>
       </c>
       <c r="BC2">
-        <v>0.1704081504297761</v>
+        <v>0.17040815042977611</v>
       </c>
       <c r="BD2">
-        <v>0.5807537764398767</v>
+        <v>0.58075377643987669</v>
       </c>
       <c r="BE2">
-        <v>0.006491239556489401</v>
+        <v>6.4912395564894008E-3</v>
       </c>
       <c r="BF2">
-        <v>-0.2044926177086178</v>
+        <v>-0.20449261770861779</v>
       </c>
       <c r="BG2">
-        <v>-0.08092430278626168</v>
+        <v>-8.0924302786261684E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="1">
+    <row r="3" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3130288683215847</v>
+        <v>0.31302886832158472</v>
       </c>
       <c r="C3">
-        <v>0.4984729575073421</v>
+        <v>0.49847295750734211</v>
       </c>
       <c r="D3">
-        <v>0.05580030729461569</v>
+        <v>5.5800307294615693E-2</v>
       </c>
       <c r="E3">
-        <v>-0.3390826411672552</v>
+        <v>-0.33908264116725523</v>
       </c>
       <c r="F3">
-        <v>0.9414507176491507</v>
+        <v>0.94145071764915067</v>
       </c>
       <c r="G3">
-        <v>0.4959507325069608</v>
+        <v>0.49595073250696081</v>
       </c>
       <c r="H3">
-        <v>0.4697372702133649</v>
+        <v>0.46973727021336492</v>
       </c>
       <c r="I3">
-        <v>0.5082864377839963</v>
+        <v>0.50828643778399629</v>
       </c>
       <c r="J3">
-        <v>0.06621350525727025</v>
+        <v>6.6213505257270253E-2</v>
       </c>
       <c r="K3">
-        <v>0.2828742602763809</v>
+        <v>0.28287426027638091</v>
       </c>
       <c r="L3">
-        <v>-0.2226351566725248</v>
+        <v>-0.22263515667252479</v>
       </c>
       <c r="M3">
-        <v>-0.1772301268226598</v>
+        <v>-0.17723012682265979</v>
       </c>
       <c r="N3">
-        <v>0.09095740928296417</v>
+        <v>9.0957409282964169E-2</v>
       </c>
       <c r="O3">
-        <v>-0.6497188321159292</v>
+        <v>-0.64971883211592918</v>
       </c>
       <c r="P3">
-        <v>0.8801763012312513</v>
+        <v>0.88017630123125135</v>
       </c>
       <c r="Q3">
-        <v>1.320826387078626</v>
+        <v>1.3208263870786261</v>
       </c>
       <c r="R3">
-        <v>1.156653024842455</v>
+        <v>1.1566530248424549</v>
       </c>
       <c r="S3">
-        <v>1.287819536403834</v>
+        <v>1.2878195364038341</v>
       </c>
       <c r="T3">
-        <v>-0.06280412670685437</v>
+        <v>-6.2804126706854368E-2</v>
       </c>
       <c r="U3">
-        <v>0.5777599781728741</v>
+        <v>0.57775997817287406</v>
       </c>
       <c r="V3">
-        <v>0.6702416556489365</v>
+        <v>0.67024165564893645</v>
       </c>
       <c r="W3">
-        <v>0.4723275406014207</v>
+        <v>0.47232754060142068</v>
       </c>
       <c r="X3">
         <v>0.9922569647384053</v>
       </c>
       <c r="Y3">
-        <v>0.4334938824893469</v>
+        <v>0.43349388248934689</v>
       </c>
       <c r="Z3">
-        <v>0.8168890023089642</v>
+        <v>0.81688900230896422</v>
       </c>
       <c r="AA3">
-        <v>-0.5121752651560483</v>
+        <v>-0.51217526515604828</v>
       </c>
       <c r="AB3">
-        <v>-0.5283324840387146</v>
+        <v>-0.52833248403871458</v>
       </c>
       <c r="AC3">
-        <v>1.403311014160184</v>
+        <v>1.4033110141601839</v>
       </c>
       <c r="AD3">
-        <v>0.4303354230980727</v>
+        <v>0.43033542309807271</v>
       </c>
       <c r="AE3">
-        <v>0.5575109969323434</v>
+        <v>0.55751099693234341</v>
       </c>
       <c r="AF3">
-        <v>0.7671265763954354</v>
+        <v>0.76712657639543536</v>
       </c>
       <c r="AG3">
-        <v>-0.1988903081353726</v>
+        <v>-0.19889030813537259</v>
       </c>
       <c r="AH3">
-        <v>0.4533474301849265</v>
+        <v>0.45334743018492651</v>
       </c>
       <c r="AI3">
-        <v>-0.5127286491246441</v>
+        <v>-0.51272864912464411</v>
       </c>
       <c r="AJ3">
-        <v>-0.02684531033644913</v>
+        <v>-2.684531033644913E-2</v>
       </c>
       <c r="AK3">
-        <v>0.477335589075276</v>
+        <v>0.47733558907527601</v>
       </c>
       <c r="AL3">
-        <v>-0.4376608956170251</v>
+        <v>-0.43766089561702509</v>
       </c>
       <c r="AM3">
-        <v>0.3897053905869234</v>
+        <v>0.38970539058692338</v>
       </c>
       <c r="AN3">
-        <v>-0.4383596774745389</v>
+        <v>-0.43835967747453891</v>
       </c>
       <c r="AO3">
-        <v>-0.2141298871524324</v>
+        <v>-0.21412988715243239</v>
       </c>
       <c r="AP3">
-        <v>0.7206040034454134</v>
+        <v>0.72060400344541342</v>
       </c>
       <c r="AQ3">
-        <v>0.9491431243271913</v>
+        <v>0.94914312432719128</v>
       </c>
       <c r="AR3">
-        <v>0.7731602433682562</v>
+        <v>0.77316024336825617</v>
       </c>
       <c r="AS3">
         <v>0.198679880909608</v>
       </c>
       <c r="AT3">
-        <v>0.3221241736205795</v>
+        <v>0.32212417362057949</v>
       </c>
       <c r="AU3">
         <v>0.2373097648951038</v>
@@ -873,99 +1148,99 @@
         <v>-0.1734583907676146</v>
       </c>
       <c r="AW3">
-        <v>-0.02248065600886347</v>
+        <v>-2.2480656008863471E-2</v>
       </c>
       <c r="AX3">
-        <v>0.514166694694848</v>
+        <v>0.51416669469484799</v>
       </c>
       <c r="AY3">
-        <v>-0.1793518254580828</v>
+        <v>-0.17935182545808279</v>
       </c>
       <c r="AZ3">
-        <v>-0.05001447848355289</v>
+        <v>-5.0014478483552893E-2</v>
       </c>
       <c r="BA3">
-        <v>-0.4675679947463937</v>
+        <v>-0.46756799474639371</v>
       </c>
       <c r="BB3">
         <v>0.1401763862800976</v>
       </c>
       <c r="BC3">
-        <v>-0.1562277937554725</v>
+        <v>-0.15622779375547249</v>
       </c>
       <c r="BD3">
-        <v>0.6340523093623994</v>
+        <v>0.63405230936239942</v>
       </c>
       <c r="BE3">
-        <v>-0.436162781265503</v>
+        <v>-0.43616278126550301</v>
       </c>
       <c r="BF3">
-        <v>-0.5775258640474138</v>
+        <v>-0.57752586404741379</v>
       </c>
       <c r="BG3">
-        <v>-0.3789876684374202</v>
+        <v>-0.37898766843742021</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="1">
+    <row r="4" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.06791652835032412</v>
+        <v>-6.7916528350324121E-2</v>
       </c>
       <c r="C4">
-        <v>-0.3646925370854633</v>
+        <v>-0.36469253708546329</v>
       </c>
       <c r="D4">
-        <v>-0.6097525893963366</v>
+        <v>-0.60975258939633659</v>
       </c>
       <c r="E4">
-        <v>-1.271077012768569</v>
+        <v>-1.2710770127685691</v>
       </c>
       <c r="F4">
-        <v>-0.008794326460577777</v>
+        <v>-8.7943264605777772E-3</v>
       </c>
       <c r="G4">
-        <v>-0.6155089334375105</v>
+        <v>-0.61550893343751045</v>
       </c>
       <c r="H4">
-        <v>0.3938907921972165</v>
+        <v>0.39389079219721651</v>
       </c>
       <c r="I4">
-        <v>0.05543845826978111</v>
+        <v>5.543845826978111E-2</v>
       </c>
       <c r="J4">
-        <v>-0.07814876893836557</v>
+        <v>-7.8148768938365573E-2</v>
       </c>
       <c r="K4">
-        <v>-0.5778594896017309</v>
+        <v>-0.57785948960173095</v>
       </c>
       <c r="L4">
-        <v>0.4102469671145139</v>
+        <v>0.41024696711451392</v>
       </c>
       <c r="M4">
         <v>-0.2918889248449999</v>
       </c>
       <c r="N4">
-        <v>0.7591965492252956</v>
+        <v>0.75919654922529556</v>
       </c>
       <c r="O4">
         <v>-0.1804236959975572</v>
       </c>
       <c r="P4">
-        <v>0.6356741345538255</v>
+        <v>0.63567413455382549</v>
       </c>
       <c r="Q4">
-        <v>0.3811341023856489</v>
+        <v>0.38113410238564888</v>
       </c>
       <c r="R4">
-        <v>-0.4173381619745947</v>
+        <v>-0.41733816197459472</v>
       </c>
       <c r="S4">
-        <v>-0.01779509380371691</v>
+        <v>-1.779509380371691E-2</v>
       </c>
       <c r="T4">
-        <v>0.3010853306419715</v>
+        <v>0.30108533064197152</v>
       </c>
       <c r="U4">
         <v>-0.1505579814386952</v>
@@ -974,22 +1249,22 @@
         <v>0.1001313120592353</v>
       </c>
       <c r="W4">
-        <v>0.005795187532822591</v>
+        <v>5.795187532822591E-3</v>
       </c>
       <c r="X4">
         <v>0.1177313460635778</v>
       </c>
       <c r="Y4">
-        <v>-0.0244734615609084</v>
+        <v>-2.4473461560908401E-2</v>
       </c>
       <c r="Z4">
-        <v>-0.1023879133056916</v>
+        <v>-0.10238791330569159</v>
       </c>
       <c r="AA4">
-        <v>-0.5907928138360395</v>
+        <v>-0.59079281383603954</v>
       </c>
       <c r="AB4">
-        <v>-0.2780013345637333</v>
+        <v>-0.27800133456373333</v>
       </c>
       <c r="AC4">
         <v>1.013642613793714</v>
@@ -998,37 +1273,37 @@
         <v>0.3668467495777441</v>
       </c>
       <c r="AE4">
-        <v>0.2943758256819115</v>
+        <v>0.29437582568191151</v>
       </c>
       <c r="AF4">
-        <v>0.5514951387083041</v>
+        <v>0.55149513870830413</v>
       </c>
       <c r="AG4">
-        <v>0.2522763856581062</v>
+        <v>0.25227638565810617</v>
       </c>
       <c r="AH4">
         <v>0.1882630566219147</v>
       </c>
       <c r="AI4">
-        <v>-0.3856253350326765</v>
+        <v>-0.38562533503267649</v>
       </c>
       <c r="AJ4">
         <v>-0.1038934626413234</v>
       </c>
       <c r="AK4">
-        <v>0.01238242350157658</v>
+        <v>1.2382423501576581E-2</v>
       </c>
       <c r="AL4">
-        <v>0.2547048095224217</v>
+        <v>0.25470480952242169</v>
       </c>
       <c r="AM4">
-        <v>-0.5366493712441429</v>
+        <v>-0.53664937124414291</v>
       </c>
       <c r="AN4">
-        <v>-0.4334165698255674</v>
+        <v>-0.43341656982556742</v>
       </c>
       <c r="AO4">
-        <v>-0.5724113179303102</v>
+        <v>-0.57241131793031019</v>
       </c>
       <c r="AP4">
         <v>-0.1829758445288219</v>
@@ -1037,165 +1312,165 @@
         <v>0.9135552346792668</v>
       </c>
       <c r="AR4">
-        <v>0.3642612625299014</v>
+        <v>0.36426126252990138</v>
       </c>
       <c r="AS4">
-        <v>-0.6342939063802007</v>
+        <v>-0.63429390638020067</v>
       </c>
       <c r="AT4">
         <v>0.1238900411553585</v>
       </c>
       <c r="AU4">
-        <v>-0.3458444689514011</v>
+        <v>-0.34584446895140109</v>
       </c>
       <c r="AV4">
-        <v>-0.7639027694717861</v>
+        <v>-0.76390276947178615</v>
       </c>
       <c r="AW4">
-        <v>0.3737399649289888</v>
+        <v>0.37373996492898881</v>
       </c>
       <c r="AX4">
-        <v>-0.1281394714074477</v>
+        <v>-0.12813947140744769</v>
       </c>
       <c r="AY4">
-        <v>-0.4676536571810975</v>
+        <v>-0.46765365718109753</v>
       </c>
       <c r="AZ4">
-        <v>0.4142376491318069</v>
+        <v>0.41423764913180688</v>
       </c>
       <c r="BA4">
-        <v>-0.3955970380252078</v>
+        <v>-0.39559703802520779</v>
       </c>
       <c r="BB4">
-        <v>-0.0455191847866506</v>
+        <v>-4.5519184786650603E-2</v>
       </c>
       <c r="BC4">
         <v>0.2452759589963977</v>
       </c>
       <c r="BD4">
-        <v>0.3837189817836203</v>
+        <v>0.38371898178362029</v>
       </c>
       <c r="BE4">
         <v>0.1158964167892181</v>
       </c>
       <c r="BF4">
-        <v>-0.3148475656629202</v>
+        <v>-0.31484756566292021</v>
       </c>
       <c r="BG4">
-        <v>-0.265771199970344</v>
+        <v>-0.26577119997034399</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
-      <c r="A5" s="1">
+    <row r="5" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09656378137764696</v>
+        <v>9.6563781377646957E-2</v>
       </c>
       <c r="C5">
         <v>-0.6444067265543082</v>
       </c>
       <c r="D5">
-        <v>-0.5933864909372906</v>
+        <v>-0.59338649093729057</v>
       </c>
       <c r="E5">
-        <v>-1.335457818464359</v>
+        <v>-1.3354578184643591</v>
       </c>
       <c r="F5">
-        <v>0.005311583015538163</v>
+        <v>5.3115830155381627E-3</v>
       </c>
       <c r="G5">
-        <v>-0.3708275903152216</v>
+        <v>-0.37082759031522161</v>
       </c>
       <c r="H5">
-        <v>0.4223809119913159</v>
+        <v>0.42238091199131589</v>
       </c>
       <c r="I5">
-        <v>0.01394629197385075</v>
+        <v>1.394629197385075E-2</v>
       </c>
       <c r="J5">
         <v>0.236455949210293</v>
       </c>
       <c r="K5">
-        <v>-0.6267636479013654</v>
+        <v>-0.62676364790136541</v>
       </c>
       <c r="L5">
-        <v>0.4665493793524099</v>
+        <v>0.46654937935240992</v>
       </c>
       <c r="M5">
-        <v>-0.3502035365111906</v>
+        <v>-0.35020353651119063</v>
       </c>
       <c r="N5">
-        <v>0.481509915127613</v>
+        <v>0.48150991512761299</v>
       </c>
       <c r="O5">
-        <v>-0.4755942066770749</v>
+        <v>-0.47559420667707492</v>
       </c>
       <c r="P5">
-        <v>0.2668239727223506</v>
+        <v>0.26682397272235059</v>
       </c>
       <c r="Q5">
-        <v>0.4668444114470099</v>
+        <v>0.46684441144700989</v>
       </c>
       <c r="R5">
-        <v>-0.421888689358521</v>
+        <v>-0.42188868935852097</v>
       </c>
       <c r="S5">
-        <v>-0.09331501644102236</v>
+        <v>-9.3315016441022358E-2</v>
       </c>
       <c r="T5">
-        <v>0.2117864946857564</v>
+        <v>0.21178649468575639</v>
       </c>
       <c r="U5">
-        <v>-0.3408062231691246</v>
+        <v>-0.34080622316912462</v>
       </c>
       <c r="V5">
-        <v>-0.06492192814295442</v>
+        <v>-6.4921928142954416E-2</v>
       </c>
       <c r="W5">
-        <v>0.113544266877777</v>
+        <v>0.11354426687777699</v>
       </c>
       <c r="X5">
-        <v>-0.1296210516837492</v>
+        <v>-0.12962105168374921</v>
       </c>
       <c r="Y5">
         <v>-0.1716737330609687</v>
       </c>
       <c r="Z5">
-        <v>-0.3184171692305742</v>
+        <v>-0.31841716923057423</v>
       </c>
       <c r="AA5">
-        <v>-0.6147976488490333</v>
+        <v>-0.61479764884903332</v>
       </c>
       <c r="AB5">
-        <v>-0.1831740971713055</v>
+        <v>-0.18317409717130551</v>
       </c>
       <c r="AC5">
-        <v>0.8435671638281274</v>
+        <v>0.84356716382812735</v>
       </c>
       <c r="AD5">
-        <v>0.09719793093839493</v>
+        <v>9.7197930938394933E-2</v>
       </c>
       <c r="AE5">
-        <v>0.210029692535925</v>
+        <v>0.21002969253592499</v>
       </c>
       <c r="AF5">
-        <v>0.4427839377742687</v>
+        <v>0.44278393777426872</v>
       </c>
       <c r="AG5">
-        <v>0.2975665491716666</v>
+        <v>0.29756654917166658</v>
       </c>
       <c r="AH5">
-        <v>-0.0780460625136418</v>
+        <v>-7.8046062513641795E-2</v>
       </c>
       <c r="AI5">
-        <v>-0.651812617456395</v>
+        <v>-0.65181261745639496</v>
       </c>
       <c r="AJ5">
-        <v>0.02174302745067739</v>
+        <v>2.1743027450677389E-2</v>
       </c>
       <c r="AK5">
-        <v>-0.06610916496541012</v>
+        <v>-6.6109164965410125E-2</v>
       </c>
       <c r="AL5">
         <v>0.3776145815952463</v>
@@ -1204,135 +1479,135 @@
         <v>-0.3059896670646296</v>
       </c>
       <c r="AN5">
-        <v>-0.3048456744071646</v>
+        <v>-0.30484567440716459</v>
       </c>
       <c r="AO5">
-        <v>-0.4702061141685415</v>
+        <v>-0.47020611416854152</v>
       </c>
       <c r="AP5">
-        <v>-0.1809667114622545</v>
+        <v>-0.18096671146225449</v>
       </c>
       <c r="AQ5">
-        <v>0.9243409429029633</v>
+        <v>0.92434094290296331</v>
       </c>
       <c r="AR5">
         <v>0.2453237383064317</v>
       </c>
       <c r="AS5">
-        <v>-1.100898281841482</v>
+        <v>-1.1008982818414821</v>
       </c>
       <c r="AT5">
-        <v>-0.2077911484285301</v>
+        <v>-0.20779114842853011</v>
       </c>
       <c r="AU5">
-        <v>-0.3699282187133445</v>
+        <v>-0.36992821871334453</v>
       </c>
       <c r="AV5">
-        <v>-0.6518986849698161</v>
+        <v>-0.65189868496981607</v>
       </c>
       <c r="AW5">
         <v>0.297863804136836</v>
       </c>
       <c r="AX5">
-        <v>0.01303324189111947</v>
+        <v>1.3033241891119471E-2</v>
       </c>
       <c r="AY5">
-        <v>-0.4805264870068504</v>
+        <v>-0.48052648700685041</v>
       </c>
       <c r="AZ5">
         <v>0.5949457911434386</v>
       </c>
       <c r="BA5">
-        <v>-0.2922725543312331</v>
+        <v>-0.29227255433123311</v>
       </c>
       <c r="BB5">
-        <v>-0.2941855752570109</v>
+        <v>-0.29418557525701089</v>
       </c>
       <c r="BC5">
-        <v>0.3807032214943811</v>
+        <v>0.38070322149438113</v>
       </c>
       <c r="BD5">
-        <v>0.3660207557520646</v>
+        <v>0.36602075575206461</v>
       </c>
       <c r="BE5">
-        <v>-0.0008489982069585519</v>
+        <v>-8.4899820695855186E-4</v>
       </c>
       <c r="BF5">
         <v>-0.1176958332968808</v>
       </c>
       <c r="BG5">
-        <v>-0.2911121111597008</v>
+        <v>-0.29111211115970081</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
-      <c r="A6" s="1">
+    <row r="6" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4994020878470672</v>
+        <v>0.49940208784706719</v>
       </c>
       <c r="C6">
-        <v>0.5187134287206698</v>
+        <v>0.51871342872066983</v>
       </c>
       <c r="D6">
-        <v>0.5607445462347206</v>
+        <v>0.56074454623472059</v>
       </c>
       <c r="E6">
         <v>-0.8953484556088348</v>
       </c>
       <c r="F6">
-        <v>1.248780974470194</v>
+        <v>1.2487809744701941</v>
       </c>
       <c r="G6">
-        <v>-0.2648479454765534</v>
+        <v>-0.26484794547655338</v>
       </c>
       <c r="H6">
-        <v>-0.05238348269673939</v>
+        <v>-5.238348269673939E-2</v>
       </c>
       <c r="I6">
-        <v>0.5185316069284953</v>
+        <v>0.51853160692849531</v>
       </c>
       <c r="J6">
-        <v>0.9791932802352462</v>
+        <v>0.97919328023524621</v>
       </c>
       <c r="K6">
-        <v>0.5139395998973276</v>
+        <v>0.51393959989732763</v>
       </c>
       <c r="L6">
-        <v>-0.3606125411929221</v>
+        <v>-0.36061254119292208</v>
       </c>
       <c r="M6">
-        <v>-1.537902478655433</v>
+        <v>-1.5379024786554329</v>
       </c>
       <c r="N6">
         <v>0.1866709147989529</v>
       </c>
       <c r="O6">
-        <v>0.3692180313747496</v>
+        <v>0.36921803137474962</v>
       </c>
       <c r="P6">
         <v>1.332087019195469</v>
       </c>
       <c r="Q6">
-        <v>1.346407726912853</v>
+        <v>1.3464077269128529</v>
       </c>
       <c r="R6">
-        <v>0.1549179147351933</v>
+        <v>0.15491791473519331</v>
       </c>
       <c r="S6">
-        <v>0.9986234742655395</v>
+        <v>0.99862347426553955</v>
       </c>
       <c r="T6">
-        <v>0.684322129439818</v>
+        <v>0.68432212943981796</v>
       </c>
       <c r="U6">
-        <v>0.1200307601298519</v>
+        <v>0.12003076012985189</v>
       </c>
       <c r="V6">
-        <v>0.2252175952024064</v>
+        <v>0.22521759520240639</v>
       </c>
       <c r="W6">
-        <v>0.4778498046479587</v>
+        <v>0.47784980464795868</v>
       </c>
       <c r="X6">
         <v>1.267507094941301</v>
@@ -1341,22 +1616,22 @@
         <v>0.1184628307841491</v>
       </c>
       <c r="Z6">
-        <v>0.8729067318726185</v>
+        <v>0.87290673187261847</v>
       </c>
       <c r="AA6">
-        <v>-0.04482124212533874</v>
+        <v>-4.4821242125338737E-2</v>
       </c>
       <c r="AB6">
-        <v>-0.8650635562649359</v>
+        <v>-0.86506355626493592</v>
       </c>
       <c r="AC6">
-        <v>2.130595143974899</v>
+        <v>2.1305951439748991</v>
       </c>
       <c r="AD6">
         <v>0.2841174796864559</v>
       </c>
       <c r="AE6">
-        <v>0.01233779678172818</v>
+        <v>1.233779678172818E-2</v>
       </c>
       <c r="AF6">
         <v>1.079112933445072</v>
@@ -1365,28 +1640,28 @@
         <v>0.5739219596555567</v>
       </c>
       <c r="AH6">
-        <v>0.5832541059647796</v>
+        <v>0.58325410596477956</v>
       </c>
       <c r="AI6">
-        <v>-1.235580443432914</v>
+        <v>-1.2355804434329141</v>
       </c>
       <c r="AJ6">
-        <v>0.8412118415080544</v>
+        <v>0.84121184150805439</v>
       </c>
       <c r="AK6">
         <v>1.410334396327779</v>
       </c>
       <c r="AL6">
-        <v>-0.5508016292762217</v>
+        <v>-0.55080162927622167</v>
       </c>
       <c r="AM6">
         <v>0.2145071243164634</v>
       </c>
       <c r="AN6">
-        <v>-0.583876188358725</v>
+        <v>-0.58387618835872501</v>
       </c>
       <c r="AO6">
-        <v>0.3404230797025251</v>
+        <v>0.34042307970252511</v>
       </c>
       <c r="AP6">
         <v>0.7981372169856078</v>
@@ -1395,117 +1670,117 @@
         <v>1.263517009970218</v>
       </c>
       <c r="AR6">
-        <v>1.020137437106397</v>
+        <v>1.0201374371063969</v>
       </c>
       <c r="AS6">
         <v>-0.1140797201972267</v>
       </c>
       <c r="AT6">
-        <v>0.02888528936057877</v>
+        <v>2.888528936057877E-2</v>
       </c>
       <c r="AU6">
-        <v>-0.6051560800538283</v>
+        <v>-0.60515608005382826</v>
       </c>
       <c r="AV6">
-        <v>0.01230726948462402</v>
+        <v>1.2307269484624021E-2</v>
       </c>
       <c r="AW6">
-        <v>-0.06825104227274882</v>
+        <v>-6.8251042272748821E-2</v>
       </c>
       <c r="AX6">
-        <v>-0.3906836685230223</v>
+        <v>-0.39068366852302228</v>
       </c>
       <c r="AY6">
         <v>-1.098461020311875</v>
       </c>
       <c r="AZ6">
-        <v>-0.003011992684371932</v>
+        <v>-3.0119926843719322E-3</v>
       </c>
       <c r="BA6">
-        <v>0.3455805537076391</v>
+        <v>0.34558055370763913</v>
       </c>
       <c r="BB6">
-        <v>0.3691602994196488</v>
+        <v>0.36916029941964879</v>
       </c>
       <c r="BC6">
         <v>0.1146099564420269</v>
       </c>
       <c r="BD6">
-        <v>0.5790034288911827</v>
+        <v>0.57900342889118273</v>
       </c>
       <c r="BE6">
-        <v>-0.216322483091022</v>
+        <v>-0.21632248309102201</v>
       </c>
       <c r="BF6">
         <v>-1.589895594729301</v>
       </c>
       <c r="BG6">
-        <v>-0.407815472251393</v>
+        <v>-0.40781547225139297</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
-      <c r="A7" s="1">
+    <row r="7" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06229484707234174</v>
+        <v>6.2294847072341737E-2</v>
       </c>
       <c r="C7">
-        <v>0.1834101741752485</v>
+        <v>0.18341017417524849</v>
       </c>
       <c r="D7">
         <v>-0.2240195204117931</v>
       </c>
       <c r="E7">
-        <v>-1.226970921149995</v>
+        <v>-1.2269709211499951</v>
       </c>
       <c r="F7">
-        <v>0.5317961777279488</v>
+        <v>0.53179617772794885</v>
       </c>
       <c r="G7">
-        <v>-0.63753295617196</v>
+        <v>-0.63753295617196004</v>
       </c>
       <c r="H7">
         <v>0.2627108480563653</v>
       </c>
       <c r="I7">
-        <v>0.5304922865700609</v>
+        <v>0.53049228657006087</v>
       </c>
       <c r="J7">
-        <v>0.391147789171383</v>
+        <v>0.39114778917138299</v>
       </c>
       <c r="K7">
-        <v>0.1665763563964882</v>
+        <v>0.16657635639648821</v>
       </c>
       <c r="L7">
-        <v>0.08185392985750592</v>
+        <v>8.1853929857505919E-2</v>
       </c>
       <c r="M7">
-        <v>-0.6391158365174865</v>
+        <v>-0.63911583651748649</v>
       </c>
       <c r="N7">
-        <v>0.4807404866250232</v>
+        <v>0.48074048662502322</v>
       </c>
       <c r="O7">
-        <v>0.2159056638901422</v>
+        <v>0.21590566389014221</v>
       </c>
       <c r="P7">
-        <v>0.4170963088100997</v>
+        <v>0.41709630881009968</v>
       </c>
       <c r="Q7">
-        <v>0.9540773668067311</v>
+        <v>0.95407736680673105</v>
       </c>
       <c r="R7">
-        <v>-0.03000074477835199</v>
+        <v>-3.000074477835199E-2</v>
       </c>
       <c r="S7">
-        <v>0.150726013451578</v>
+        <v>0.15072601345157799</v>
       </c>
       <c r="T7">
         <v>0.1084951258393515</v>
       </c>
       <c r="U7">
-        <v>0.2516584197669821</v>
+        <v>0.25165841976698211</v>
       </c>
       <c r="V7">
         <v>0.3410621415597096</v>
@@ -1514,7 +1789,7 @@
         <v>-0.2369681860469581</v>
       </c>
       <c r="X7">
-        <v>0.6479789938648787</v>
+        <v>0.64797899386487867</v>
       </c>
       <c r="Y7">
         <v>0.176510376563949</v>
@@ -1523,365 +1798,365 @@
         <v>-0.1066910224346828</v>
       </c>
       <c r="AA7">
-        <v>0.04581083526547657</v>
+        <v>4.5810835265476572E-2</v>
       </c>
       <c r="AB7">
-        <v>-0.2873365486502927</v>
+        <v>-0.28733654865029268</v>
       </c>
       <c r="AC7">
-        <v>0.7970916576722162</v>
+        <v>0.79709165767221624</v>
       </c>
       <c r="AD7">
-        <v>0.361879532056929</v>
+        <v>0.36187953205692902</v>
       </c>
       <c r="AE7">
-        <v>0.4462290073544501</v>
+        <v>0.44622900735445009</v>
       </c>
       <c r="AF7">
         <v>0.6688145368147157</v>
       </c>
       <c r="AG7">
-        <v>-0.06486045504348618</v>
+        <v>-6.4860455043486184E-2</v>
       </c>
       <c r="AH7">
         <v>0.3883987216388074</v>
       </c>
       <c r="AI7">
-        <v>-0.7467003073324867</v>
+        <v>-0.74670030733248671</v>
       </c>
       <c r="AJ7">
-        <v>0.7628545502734602</v>
+        <v>0.76285455027346016</v>
       </c>
       <c r="AK7">
         <v>0.6418941794569325</v>
       </c>
       <c r="AL7">
-        <v>-0.1674723426638635</v>
+        <v>-0.16747234266386349</v>
       </c>
       <c r="AM7">
-        <v>-0.1099560997055097</v>
+        <v>-0.10995609970550969</v>
       </c>
       <c r="AN7">
-        <v>-0.782157520271376</v>
+        <v>-0.78215752027137597</v>
       </c>
       <c r="AO7">
-        <v>0.04016889344106259</v>
+        <v>4.0168893441062593E-2</v>
       </c>
       <c r="AP7">
-        <v>0.1948673457300077</v>
+        <v>0.19486734573000769</v>
       </c>
       <c r="AQ7">
-        <v>0.8097244198978483</v>
+        <v>0.80972441989784827</v>
       </c>
       <c r="AR7">
-        <v>0.5938472289860195</v>
+        <v>0.59384722898601949</v>
       </c>
       <c r="AS7">
-        <v>-0.328469461404964</v>
+        <v>-0.32846946140496402</v>
       </c>
       <c r="AT7">
         <v>0.1186845025020123</v>
       </c>
       <c r="AU7">
-        <v>-0.5538884067890573</v>
+        <v>-0.55388840678905726</v>
       </c>
       <c r="AV7">
-        <v>-0.246197068859437</v>
+        <v>-0.24619706885943701</v>
       </c>
       <c r="AW7">
-        <v>-0.04096953732416601</v>
+        <v>-4.0969537324166007E-2</v>
       </c>
       <c r="AX7">
-        <v>-0.4752302468186683</v>
+        <v>-0.47523024681866832</v>
       </c>
       <c r="AY7">
-        <v>-0.2890891506517028</v>
+        <v>-0.28908915065170282</v>
       </c>
       <c r="AZ7">
         <v>0.1049574907789652</v>
       </c>
       <c r="BA7">
-        <v>0.2358400758904234</v>
+        <v>0.23584007589042341</v>
       </c>
       <c r="BB7">
-        <v>-0.1353770388469974</v>
+        <v>-0.13537703884699739</v>
       </c>
       <c r="BC7">
         <v>0.662086045937062</v>
       </c>
       <c r="BD7">
-        <v>0.5157640446372995</v>
+        <v>0.51576404463729952</v>
       </c>
       <c r="BE7">
-        <v>-0.06150471521176371</v>
+        <v>-6.1504715211763712E-2</v>
       </c>
       <c r="BF7">
-        <v>-0.6351081540010532</v>
+        <v>-0.63510815400105325</v>
       </c>
       <c r="BG7">
-        <v>0.007651576573469512</v>
+        <v>7.6515765734695117E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
-      <c r="A8" s="1">
+    <row r="8" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3572891915030141</v>
+        <v>0.35728919150301408</v>
       </c>
       <c r="C8">
-        <v>-0.0003977873734079661</v>
+        <v>-3.9778737340796609E-4</v>
       </c>
       <c r="D8">
-        <v>-0.5108377373896049</v>
+        <v>-0.51083773738960492</v>
       </c>
       <c r="E8">
         <v>-1.091523984784305</v>
       </c>
       <c r="F8">
-        <v>0.3819508062852893</v>
+        <v>0.38195080628528932</v>
       </c>
       <c r="G8">
-        <v>-0.5674812299608418</v>
+        <v>-0.56748122996084183</v>
       </c>
       <c r="H8">
-        <v>0.1502517340723731</v>
+        <v>0.15025173407237311</v>
       </c>
       <c r="I8">
-        <v>0.7515810116020779</v>
+        <v>0.75158101160207791</v>
       </c>
       <c r="J8">
-        <v>0.2889984596559506</v>
+        <v>0.28899845965595061</v>
       </c>
       <c r="K8">
-        <v>-0.174079610375715</v>
+        <v>-0.17407961037571501</v>
       </c>
       <c r="L8">
-        <v>0.1696806399377921</v>
+        <v>0.16968063993779209</v>
       </c>
       <c r="M8">
-        <v>-0.2380795115940113</v>
+        <v>-0.23807951159401131</v>
       </c>
       <c r="N8">
-        <v>0.5518002173996494</v>
+        <v>0.55180021739964935</v>
       </c>
       <c r="O8">
-        <v>0.6881320119161203</v>
+        <v>0.68813201191612028</v>
       </c>
       <c r="P8">
-        <v>1.090552582337159</v>
+        <v>1.0905525823371589</v>
       </c>
       <c r="Q8">
-        <v>0.7233368151410122</v>
+        <v>0.72333681514101222</v>
       </c>
       <c r="R8">
-        <v>-0.08543721450639243</v>
+        <v>-8.5437214506392425E-2</v>
       </c>
       <c r="S8">
-        <v>0.236020353031975</v>
+        <v>0.23602035303197499</v>
       </c>
       <c r="T8">
-        <v>0.5304938703103133</v>
+        <v>0.53049387031031325</v>
       </c>
       <c r="U8">
         <v>0.9527324942443326</v>
       </c>
       <c r="V8">
-        <v>0.4749503184972149</v>
+        <v>0.47495031849721492</v>
       </c>
       <c r="W8">
-        <v>0.6994727724441333</v>
+        <v>0.69947277244413331</v>
       </c>
       <c r="X8">
-        <v>0.517603391981141</v>
+        <v>0.51760339198114103</v>
       </c>
       <c r="Y8">
-        <v>0.5442284951436857</v>
+        <v>0.54422849514368565</v>
       </c>
       <c r="Z8">
-        <v>0.2110004391728287</v>
+        <v>0.21100043917282871</v>
       </c>
       <c r="AA8">
-        <v>-0.01506317991686055</v>
+        <v>-1.506317991686055E-2</v>
       </c>
       <c r="AB8">
-        <v>-0.5458822180998172</v>
+        <v>-0.54588221809981718</v>
       </c>
       <c r="AC8">
-        <v>1.436595658304136</v>
+        <v>1.4365956583041359</v>
       </c>
       <c r="AD8">
-        <v>0.5219534002183602</v>
+        <v>0.52195340021836023</v>
       </c>
       <c r="AE8">
-        <v>0.6623126975027396</v>
+        <v>0.66231269750273958</v>
       </c>
       <c r="AF8">
         <v>1.5164636928388</v>
       </c>
       <c r="AG8">
-        <v>0.3036007958002901</v>
+        <v>0.30360079580029009</v>
       </c>
       <c r="AH8">
-        <v>0.5516903695677041</v>
+        <v>0.55169036956770412</v>
       </c>
       <c r="AI8">
         <v>-0.9167438649125258</v>
       </c>
       <c r="AJ8">
-        <v>0.6239692175776574</v>
+        <v>0.62396921757765744</v>
       </c>
       <c r="AK8">
-        <v>0.3502672206731056</v>
+        <v>0.35026722067310562</v>
       </c>
       <c r="AL8">
-        <v>-0.1390768966560209</v>
+        <v>-0.13907689665602091</v>
       </c>
       <c r="AM8">
-        <v>-0.0982648767498765</v>
+        <v>-9.8264876749876495E-2</v>
       </c>
       <c r="AN8">
-        <v>-0.04022572194256052</v>
+        <v>-4.0225721942560522E-2</v>
       </c>
       <c r="AO8">
-        <v>0.8219329637329487</v>
+        <v>0.82193296373294866</v>
       </c>
       <c r="AP8">
-        <v>0.3285841954986898</v>
+        <v>0.32858419549868978</v>
       </c>
       <c r="AQ8">
         <v>1.483435505438641</v>
       </c>
       <c r="AR8">
-        <v>0.8623699156547521</v>
+        <v>0.86236991565475207</v>
       </c>
       <c r="AS8">
         <v>0.5226682151924531</v>
       </c>
       <c r="AT8">
-        <v>-0.005421085925584486</v>
+        <v>-5.4210859255844858E-3</v>
       </c>
       <c r="AU8">
-        <v>-0.6711041478450877</v>
+        <v>-0.67110414784508765</v>
       </c>
       <c r="AV8">
-        <v>0.5458086205069299</v>
+        <v>0.54580862050692991</v>
       </c>
       <c r="AW8">
-        <v>0.3337863550262474</v>
+        <v>0.33378635502624743</v>
       </c>
       <c r="AX8">
-        <v>0.5246327010289554</v>
+        <v>0.52463270102895543</v>
       </c>
       <c r="AY8">
-        <v>-0.1715639544945556</v>
+        <v>-0.17156395449455561</v>
       </c>
       <c r="AZ8">
-        <v>0.3754192771318284</v>
+        <v>0.37541927713182838</v>
       </c>
       <c r="BA8">
-        <v>0.1461102437007951</v>
+        <v>0.14611024370079509</v>
       </c>
       <c r="BB8">
-        <v>0.1531674277595415</v>
+        <v>0.15316742775954151</v>
       </c>
       <c r="BC8">
-        <v>0.3211538852751641</v>
+        <v>0.32115388527516409</v>
       </c>
       <c r="BD8">
-        <v>0.02342740358711566</v>
+        <v>2.3427403587115661E-2</v>
       </c>
       <c r="BE8">
-        <v>-0.2328255110739215</v>
+        <v>-0.23282551107392149</v>
       </c>
       <c r="BF8">
-        <v>-0.2415167991534675</v>
+        <v>-0.24151679915346749</v>
       </c>
       <c r="BG8">
         <v>0.1127053438850491</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
-      <c r="A9" s="1">
+    <row r="9" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8962225798119585</v>
+        <v>0.89622257981195852</v>
       </c>
       <c r="C9">
-        <v>0.03842194029889833</v>
+        <v>3.8421940298898331E-2</v>
       </c>
       <c r="D9">
-        <v>-0.8056577135573486</v>
+        <v>-0.80565771355734861</v>
       </c>
       <c r="E9">
-        <v>0.5292936801731333</v>
+        <v>0.52929368017313327</v>
       </c>
       <c r="F9">
-        <v>0.2961947291667298</v>
+        <v>0.29619472916672979</v>
       </c>
       <c r="G9">
-        <v>-0.9426563183885737</v>
+        <v>-0.94265631838857367</v>
       </c>
       <c r="H9">
-        <v>0.9849595370464402</v>
+        <v>0.98495953704644024</v>
       </c>
       <c r="I9">
-        <v>0.614805841975355</v>
+        <v>0.61480584197535504</v>
       </c>
       <c r="J9">
-        <v>0.8627778155480303</v>
+        <v>0.86277781554803035</v>
       </c>
       <c r="K9">
-        <v>0.8377277733143568</v>
+        <v>0.83772777331435677</v>
       </c>
       <c r="L9">
         <v>0.4039150540723318</v>
       </c>
       <c r="M9">
-        <v>-0.08318077915111995</v>
+        <v>-8.3180779151119946E-2</v>
       </c>
       <c r="N9">
-        <v>0.6449587490516027</v>
+        <v>0.64495874905160266</v>
       </c>
       <c r="O9">
-        <v>-0.1797412057523139</v>
+        <v>-0.17974120575231389</v>
       </c>
       <c r="P9">
-        <v>0.4319993079965068</v>
+        <v>0.43199930799650682</v>
       </c>
       <c r="Q9">
-        <v>0.7430701762519707</v>
+        <v>0.74307017625197069</v>
       </c>
       <c r="R9">
-        <v>0.3729168791026022</v>
+        <v>0.37291687910260218</v>
       </c>
       <c r="S9">
-        <v>0.04363350537695433</v>
+        <v>4.3633505376954332E-2</v>
       </c>
       <c r="T9">
-        <v>0.7005985235157682</v>
+        <v>0.70059852351576823</v>
       </c>
       <c r="U9">
-        <v>0.3862962607907796</v>
+        <v>0.38629626079077961</v>
       </c>
       <c r="V9">
         <v>1.029376810597854</v>
       </c>
       <c r="W9">
-        <v>-0.007676761918967189</v>
+        <v>-7.6767619189671886E-3</v>
       </c>
       <c r="X9">
-        <v>0.4030787054513557</v>
+        <v>0.40307870545135571</v>
       </c>
       <c r="Y9">
-        <v>0.5644908540294332</v>
+        <v>0.56449085402943322</v>
       </c>
       <c r="Z9">
-        <v>0.01260317865375545</v>
+        <v>1.260317865375545E-2</v>
       </c>
       <c r="AA9">
-        <v>0.2037097869847322</v>
+        <v>0.20370978698473219</v>
       </c>
       <c r="AB9">
         <v>0.3237413569051607</v>
@@ -1890,46 +2165,46 @@
         <v>1.417862602707042</v>
       </c>
       <c r="AD9">
-        <v>0.4349718743941841</v>
+        <v>0.43497187439418411</v>
       </c>
       <c r="AE9">
         <v>0.1827745942174992</v>
       </c>
       <c r="AF9">
-        <v>0.679997949721894</v>
+        <v>0.67999794972189398</v>
       </c>
       <c r="AG9">
-        <v>0.2698144710278756</v>
+        <v>0.26981447102787559</v>
       </c>
       <c r="AH9">
         <v>0.1199945425173863</v>
       </c>
       <c r="AI9">
-        <v>-0.140938701572083</v>
+        <v>-0.14093870157208299</v>
       </c>
       <c r="AJ9">
-        <v>0.7607622125046996</v>
+        <v>0.76076221250469955</v>
       </c>
       <c r="AK9">
-        <v>0.7957764699711216</v>
+        <v>0.79577646997112161</v>
       </c>
       <c r="AL9">
-        <v>0.6244315582521962</v>
+        <v>0.62443155825219621</v>
       </c>
       <c r="AM9">
-        <v>-0.04309565648683045</v>
+        <v>-4.3095656486830447E-2</v>
       </c>
       <c r="AN9">
-        <v>-0.6944049082473386</v>
+        <v>-0.69440490824733858</v>
       </c>
       <c r="AO9">
-        <v>0.1707053593306523</v>
+        <v>0.17070535933065231</v>
       </c>
       <c r="AP9">
-        <v>0.8677357643531078</v>
+        <v>0.86773576435310784</v>
       </c>
       <c r="AQ9">
-        <v>0.5224687999185563</v>
+        <v>0.52246879991855633</v>
       </c>
       <c r="AR9">
         <v>0.4599426546836351</v>
@@ -1938,34 +2213,34 @@
         <v>-0.3484892455933839</v>
       </c>
       <c r="AT9">
-        <v>0.6121285476525783</v>
+        <v>0.61212854765257829</v>
       </c>
       <c r="AU9">
-        <v>0.3917195610111225</v>
+        <v>0.39171956101112249</v>
       </c>
       <c r="AV9">
-        <v>0.04428726567695845</v>
+        <v>4.4287265676958447E-2</v>
       </c>
       <c r="AW9">
-        <v>-0.1076668255085556</v>
+        <v>-0.10766682550855559</v>
       </c>
       <c r="AX9">
-        <v>0.4569199088739396</v>
+        <v>0.45691990887393957</v>
       </c>
       <c r="AY9">
-        <v>-0.04074238724622579</v>
+        <v>-4.0742387246225788E-2</v>
       </c>
       <c r="AZ9">
-        <v>0.1755868566297633</v>
+        <v>0.17558685662976331</v>
       </c>
       <c r="BA9">
         <v>0.275257859830562</v>
       </c>
       <c r="BB9">
-        <v>0.2536280501629398</v>
+        <v>0.25362805016293982</v>
       </c>
       <c r="BC9">
-        <v>0.4663400980642141</v>
+        <v>0.46634009806421411</v>
       </c>
       <c r="BD9">
         <v>0.7630896680052619</v>
@@ -1977,132 +2252,132 @@
         <v>0.1449643272532723</v>
       </c>
       <c r="BG9">
-        <v>-0.284793360263382</v>
+        <v>-0.28479336026338198</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
-      <c r="A10" s="1">
+    <row r="10" spans="1:59" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>0.7041364191995132</v>
       </c>
       <c r="C10">
-        <v>-0.3091910664745866</v>
+        <v>-0.30919106647458661</v>
       </c>
       <c r="D10">
-        <v>-0.3563839427957649</v>
+        <v>-0.35638394279576491</v>
       </c>
       <c r="E10">
-        <v>-0.3313880627089786</v>
+        <v>-0.33138806270897858</v>
       </c>
       <c r="F10">
-        <v>-0.008715992225877064</v>
+        <v>-8.7159922258770641E-3</v>
       </c>
       <c r="G10">
         <v>0.1960853217347511</v>
       </c>
       <c r="H10">
-        <v>0.2658787844286626</v>
+        <v>0.26587878442866258</v>
       </c>
       <c r="I10">
-        <v>-0.1639902867378026</v>
+        <v>-0.16399028673780261</v>
       </c>
       <c r="J10">
-        <v>0.5053438257477981</v>
+        <v>0.50534382574779813</v>
       </c>
       <c r="K10">
-        <v>-0.5324814645692649</v>
+        <v>-0.53248146456926493</v>
       </c>
       <c r="L10">
         <v>0.5090386700202808</v>
       </c>
       <c r="M10">
-        <v>-0.1557808628241062</v>
+        <v>-0.15578086282410619</v>
       </c>
       <c r="N10">
-        <v>0.9329539489461522</v>
+        <v>0.93295394894615225</v>
       </c>
       <c r="O10">
         <v>-0.1458330205632633</v>
       </c>
       <c r="P10">
-        <v>0.323226064456125</v>
+        <v>0.32322606445612501</v>
       </c>
       <c r="Q10">
-        <v>0.1355383056101233</v>
+        <v>0.13553830561012331</v>
       </c>
       <c r="R10">
-        <v>-0.5306419048305587</v>
+        <v>-0.53064190483055873</v>
       </c>
       <c r="S10">
-        <v>-0.008111171235792509</v>
+        <v>-8.1111712357925091E-3</v>
       </c>
       <c r="T10">
         <v>-0.1199326870291831</v>
       </c>
       <c r="U10">
-        <v>-0.01665404734069861</v>
+        <v>-1.665404734069861E-2</v>
       </c>
       <c r="V10">
-        <v>0.5444128717799011</v>
+        <v>0.54441287177990105</v>
       </c>
       <c r="W10">
-        <v>0.1324681950744822</v>
+        <v>0.13246819507448221</v>
       </c>
       <c r="X10">
-        <v>0.2410210333678253</v>
+        <v>0.24102103336782529</v>
       </c>
       <c r="Y10">
-        <v>-0.1620289130095907</v>
+        <v>-0.16202891300959071</v>
       </c>
       <c r="Z10">
-        <v>-0.3986649702028758</v>
+        <v>-0.39866497020287578</v>
       </c>
       <c r="AA10">
-        <v>-0.733259001892954</v>
+        <v>-0.73325900189295401</v>
       </c>
       <c r="AB10">
-        <v>-0.1783491299150606</v>
+        <v>-0.17834912991506061</v>
       </c>
       <c r="AC10">
-        <v>0.9752131771658784</v>
+        <v>0.97521317716587841</v>
       </c>
       <c r="AD10">
-        <v>0.4201307304449918</v>
+        <v>0.42013073044499177</v>
       </c>
       <c r="AE10">
-        <v>0.3996319940657045</v>
+        <v>0.39963199406570449</v>
       </c>
       <c r="AF10">
-        <v>0.3376708925112419</v>
+        <v>0.33767089251124188</v>
       </c>
       <c r="AG10">
-        <v>0.08609662083586676</v>
+        <v>8.6096620835866763E-2</v>
       </c>
       <c r="AH10">
-        <v>-0.1282289593616495</v>
+        <v>-0.12822895936164949</v>
       </c>
       <c r="AI10">
-        <v>0.01181587860863714</v>
+        <v>1.1815878608637141E-2</v>
       </c>
       <c r="AJ10">
-        <v>-0.06760839060110405</v>
+        <v>-6.7608390601104046E-2</v>
       </c>
       <c r="AK10">
-        <v>-0.2785986634051233</v>
+        <v>-0.27859866340512329</v>
       </c>
       <c r="AL10">
-        <v>-0.07279182439790964</v>
+        <v>-7.2791824397909641E-2</v>
       </c>
       <c r="AM10">
-        <v>-0.689356454991106</v>
+        <v>-0.68935645499110598</v>
       </c>
       <c r="AN10">
-        <v>-0.284013158458754</v>
+        <v>-0.28401315845875402</v>
       </c>
       <c r="AO10">
-        <v>-0.5974661906674985</v>
+        <v>-0.59746619066749851</v>
       </c>
       <c r="AP10">
         <v>-0.1130828969188659</v>
@@ -2111,16 +2386,16 @@
         <v>1.120818382679607</v>
       </c>
       <c r="AR10">
-        <v>0.1764128681787266</v>
+        <v>0.17641286817872659</v>
       </c>
       <c r="AS10">
-        <v>-1.16541435923399</v>
+        <v>-1.1654143592339901</v>
       </c>
       <c r="AT10">
-        <v>-0.009518644119425743</v>
+        <v>-9.5186441194257433E-3</v>
       </c>
       <c r="AU10">
-        <v>0.1945740646813748</v>
+        <v>0.19457406468137481</v>
       </c>
       <c r="AV10">
         <v>-0.1363589879339118</v>
@@ -2129,51 +2404,51 @@
         <v>0.2002639179567029</v>
       </c>
       <c r="AX10">
-        <v>0.5831718144233186</v>
+        <v>0.58317181442331856</v>
       </c>
       <c r="AY10">
-        <v>0.5012640930494108</v>
+        <v>0.50126409304941077</v>
       </c>
       <c r="AZ10">
-        <v>0.7050759876606854</v>
+        <v>0.70507598766068535</v>
       </c>
       <c r="BA10">
         <v>-0.1536388786743976</v>
       </c>
       <c r="BB10">
-        <v>-0.6560235197140307</v>
+        <v>-0.65602351971403072</v>
       </c>
       <c r="BC10">
-        <v>0.05429067023390427</v>
+        <v>5.429067023390427E-2</v>
       </c>
       <c r="BD10">
         <v>-0.3109353766281015</v>
       </c>
       <c r="BE10">
-        <v>-0.1000470623650978</v>
+        <v>-0.10004706236509781</v>
       </c>
       <c r="BF10">
         <v>0.2437909974419766</v>
       </c>
       <c r="BG10">
-        <v>-0.1588652184296203</v>
+        <v>-0.15886521842962029</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
-      <c r="A11" s="1">
+    <row r="11" spans="1:59" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.5141687000123846</v>
+        <v>-0.51416870001238457</v>
       </c>
       <c r="C11">
-        <v>-0.3028088799744464</v>
+        <v>-0.30280887997444639</v>
       </c>
       <c r="D11">
         <v>-0.1935444452769858</v>
       </c>
       <c r="E11">
-        <v>-0.02349477876674043</v>
+        <v>-2.3494778766740429E-2</v>
       </c>
       <c r="F11">
         <v>0.1082014573203693</v>
@@ -2182,82 +2457,82 @@
         <v>0.2212819287157386</v>
       </c>
       <c r="H11">
-        <v>0.01194301206846612</v>
+        <v>1.1943012068466119E-2</v>
       </c>
       <c r="I11">
-        <v>0.4966253474449286</v>
+        <v>0.49662534744492859</v>
       </c>
       <c r="J11">
-        <v>-0.05641489006351773</v>
+        <v>-5.6414890063517728E-2</v>
       </c>
       <c r="K11">
         <v>-0.1937423408722701</v>
       </c>
       <c r="L11">
-        <v>0.2212232061993752</v>
+        <v>0.22122320619937519</v>
       </c>
       <c r="M11">
         <v>-0.6296112535770001</v>
       </c>
       <c r="N11">
-        <v>-0.4220649754505222</v>
+        <v>-0.42206497545052218</v>
       </c>
       <c r="O11">
-        <v>0.4155778879797644</v>
+        <v>0.41557788797976442</v>
       </c>
       <c r="P11">
-        <v>0.4216210797755678</v>
+        <v>0.42162107977556779</v>
       </c>
       <c r="Q11">
-        <v>0.5173763585582555</v>
+        <v>0.51737635855825548</v>
       </c>
       <c r="R11">
-        <v>-0.3347692059345601</v>
+        <v>-0.33476920593456011</v>
       </c>
       <c r="S11">
-        <v>-0.2640609435344702</v>
+        <v>-0.26406094353447018</v>
       </c>
       <c r="T11">
-        <v>0.6332639546084994</v>
+        <v>0.63326395460849938</v>
       </c>
       <c r="U11">
-        <v>-0.2247282402600355</v>
+        <v>-0.22472824026003549</v>
       </c>
       <c r="V11">
-        <v>0.3057241695171337</v>
+        <v>0.30572416951713371</v>
       </c>
       <c r="W11">
-        <v>-0.2892563010692042</v>
+        <v>-0.28925630106920419</v>
       </c>
       <c r="X11">
-        <v>0.1913277069206644</v>
+        <v>0.19132770692066439</v>
       </c>
       <c r="Y11">
-        <v>0.3571976648572782</v>
+        <v>0.35719766485727822</v>
       </c>
       <c r="Z11">
-        <v>-0.3266884656207339</v>
+        <v>-0.32668846562073389</v>
       </c>
       <c r="AA11">
-        <v>-0.8937022456210916</v>
+        <v>-0.89370224562109157</v>
       </c>
       <c r="AB11">
-        <v>-0.5557648132383854</v>
+        <v>-0.55576481323838545</v>
       </c>
       <c r="AC11">
-        <v>0.3499865236816547</v>
+        <v>0.34998652368165473</v>
       </c>
       <c r="AD11">
-        <v>-1.082378693959544</v>
+        <v>-1.0823786939595439</v>
       </c>
       <c r="AE11">
-        <v>0.6443098105811441</v>
+        <v>0.64430981058114412</v>
       </c>
       <c r="AF11">
-        <v>-0.01869777168618425</v>
+        <v>-1.869777168618425E-2</v>
       </c>
       <c r="AG11">
-        <v>-0.3644219380032063</v>
+        <v>-0.36442193800320632</v>
       </c>
       <c r="AH11">
         <v>0.1427292267355941</v>
@@ -2266,76 +2541,76 @@
         <v>-1.017396597915557</v>
       </c>
       <c r="AJ11">
-        <v>0.2743361271184288</v>
+        <v>0.27433612711842881</v>
       </c>
       <c r="AK11">
         <v>0.1994448129277441</v>
       </c>
       <c r="AL11">
-        <v>-0.2424184071220734</v>
+        <v>-0.24241840712207341</v>
       </c>
       <c r="AM11">
         <v>-0.5495640794112473</v>
       </c>
       <c r="AN11">
-        <v>0.1367912129314719</v>
+        <v>0.13679121293147189</v>
       </c>
       <c r="AO11">
-        <v>0.1283363600812384</v>
+        <v>0.12833636008123839</v>
       </c>
       <c r="AP11">
-        <v>0.3941693468545606</v>
+        <v>0.39416934685456062</v>
       </c>
       <c r="AQ11">
-        <v>0.6207827313454781</v>
+        <v>0.62078273134547812</v>
       </c>
       <c r="AR11">
-        <v>0.02933666838041339</v>
+        <v>2.9336668380413392E-2</v>
       </c>
       <c r="AS11">
-        <v>-0.08114800653842597</v>
+        <v>-8.1148006538425965E-2</v>
       </c>
       <c r="AT11">
-        <v>-0.1372950794030386</v>
+        <v>-0.13729507940303859</v>
       </c>
       <c r="AU11">
-        <v>-0.7465969965765268</v>
+        <v>-0.74659699657652678</v>
       </c>
       <c r="AV11">
         <v>-1.265487461159976</v>
       </c>
       <c r="AW11">
-        <v>-0.01429447606907377</v>
+        <v>-1.429447606907377E-2</v>
       </c>
       <c r="AX11">
-        <v>-0.413049124236385</v>
+        <v>-0.41304912423638501</v>
       </c>
       <c r="AY11">
-        <v>-0.543848168720339</v>
+        <v>-0.54384816872033903</v>
       </c>
       <c r="AZ11">
-        <v>0.711848083308694</v>
+        <v>0.71184808330869398</v>
       </c>
       <c r="BA11">
-        <v>0.3546257833260141</v>
+        <v>0.35462578332601408</v>
       </c>
       <c r="BB11">
-        <v>-0.7223652652166669</v>
+        <v>-0.72236526521666689</v>
       </c>
       <c r="BC11">
-        <v>0.3943650395167067</v>
+        <v>0.39436503951670671</v>
       </c>
       <c r="BD11">
-        <v>0.01024220815446371</v>
+        <v>1.024220815446371E-2</v>
       </c>
       <c r="BE11">
-        <v>0.7208963203517224</v>
+        <v>0.72089632035172235</v>
       </c>
       <c r="BF11">
-        <v>-0.7212191048339758</v>
+        <v>-0.72121910483397578</v>
       </c>
       <c r="BG11">
-        <v>-0.1947998089021264</v>
+        <v>-0.19479980890212639</v>
       </c>
     </row>
   </sheetData>
